--- a/dist/assets/BOs/Tsukuyomi.xlsx
+++ b/dist/assets/BOs/Tsukuyomi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Github\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEF327E-6852-43EC-88B5-85CC6679B1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8160" yWindow="6630" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,292 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+  <si>
+    <t>Tsukyomi - Rush into 2TC - Husksuppe</t>
+  </si>
+  <si>
+    <t>Archaic</t>
+  </si>
+  <si>
+    <t>Food / Wood / Gold / Favor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 commoners build a watermill and go on food</t>
+  </si>
+  <si>
+    <t>Place the watermill close to wood</t>
+  </si>
+  <si>
+    <t>Miko builds Shrine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 commoners build a mining camp and go to gold</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>5 commoners to food</t>
+  </si>
+  <si>
+    <t>Miko builds a temple</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 commoners to gold</t>
+  </si>
+  <si>
+    <t>Advance (2.42) through Inari Ōkami</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Move 4 commoners from food to wood</t>
+  </si>
+  <si>
+    <t>Build a house with a gold commoner</t>
+  </si>
+  <si>
+    <t>Classical (3.42)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>commoner to gold</t>
+  </si>
+  <si>
+    <t>Make a Stable with 2 gold commoners</t>
+  </si>
+  <si>
+    <t>Make a house with a food commoner</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Use New Moon on the Stable and train 3 Naginata riders</t>
+  </si>
+  <si>
+    <t>Move 2 commoners from food to wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Build a Town Center with 5 gold commoners</t>
+  </si>
+  <si>
+    <t>add commoners to food</t>
+  </si>
+  <si>
+    <t>link to video</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1cG3tcC4cio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +317,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,14 +393,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +765,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="129.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{D64C55F3-F7F3-4894-BAE9-8B4EC35F087C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>